--- a/Raw Data/Multi Model Capacity Data.xlsx
+++ b/Raw Data/Multi Model Capacity Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avery\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avery\OneDrive\Desktop\MaterialDemand\Raw Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F707C8-FB4D-4ABF-9F66-E1529DC6AA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CA555B-62DE-455D-B6F0-9092776F2EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cap IRA" sheetId="17" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="43">
   <si>
     <t>Nuclear Existing</t>
   </si>
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B501EFA2-FD43-4AC8-A089-CB8C76500F1C}">
   <dimension ref="D1:AZ82"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="57" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="D1" zoomScale="57" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2308,14 +2308,14 @@
       <c r="W16">
         <v>0</v>
       </c>
-      <c r="X16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>20</v>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
       </c>
       <c r="AA16">
         <v>62.022255000000001</v>
@@ -5259,17 +5259,17 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X43" t="e">
+      <c r="X43">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y43" t="e">
+        <v>-33</v>
+      </c>
+      <c r="Y43">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z43" t="e">
+        <v>0</v>
+      </c>
+      <c r="Z43">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="AA43">
         <f t="shared" si="16"/>
@@ -6082,8 +6082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140F58E5-BEF2-4A9B-89FF-03652CABC948}">
   <dimension ref="D1:AQ78"/>
   <sheetViews>
-    <sheetView zoomScale="52" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="52" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7739,14 +7739,14 @@
       <c r="W16">
         <v>0</v>
       </c>
-      <c r="X16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>20</v>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
       </c>
       <c r="AA16">
         <v>59.733021000000001</v>
@@ -10774,17 +10774,17 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X43" t="e">
+      <c r="X43">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y43" t="e">
+        <v>-33</v>
+      </c>
+      <c r="Y43">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z43" t="e">
+        <v>0</v>
+      </c>
+      <c r="Z43">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="AA43">
         <f t="shared" si="13"/>
@@ -11765,7 +11765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45FE246-F012-41C2-B848-4008A6D5F736}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+    <sheetView zoomScale="86" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
